--- a/sample_data/item.xlsx
+++ b/sample_data/item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\compsci\Semester 4\Python\project2\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDawson\s4\Python\project2\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A92A42-103D-41EB-9EAB-CE562090CE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2F206-D61E-4AA1-B9F2-E53849FFEEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,12 +453,18 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,7 +542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -562,7 +568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -588,7 +594,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -614,7 +620,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -640,7 +646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>

--- a/sample_data/item.xlsx
+++ b/sample_data/item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDawson\s4\Python\project2\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2F206-D61E-4AA1-B9F2-E53849FFEEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EDA9D-4831-45CC-9577-91225F609114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
